--- a/Tabelas.xlsx
+++ b/Tabelas.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\Desktop\Projetos\05_modelo_risco_de_credito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34890A19-714D-4D27-BCA4-1B51C14B0D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1EBA1-FA15-44B4-A07F-73B57DCB040F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRISP-DM" sheetId="1" r:id="rId1"/>
     <sheet name="Rating x Risco Esperado" sheetId="2" r:id="rId2"/>
     <sheet name="Binary Encoder" sheetId="3" r:id="rId3"/>
     <sheet name="Min-Max Scaler" sheetId="4" r:id="rId4"/>
+    <sheet name="Correlação de Pearson" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Compreensão dos dados</t>
   </si>
@@ -244,6 +245,9 @@
   </si>
   <si>
     <t>Salário</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -824,6 +828,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -856,31 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,6 +1438,956 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico de Dispersão</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Correlação de Pearson'!$E$6:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Correlação de Pearson'!$F$6:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E50A-4B69-B863-5F458679CAB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1154950576"/>
+        <c:axId val="1147775136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1154950576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147775136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1147775136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1154950576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E45FC5-6BBE-2336-B7D9-0D5263FA5396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2103,58 +3057,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
     </row>
     <row r="3" spans="1:14" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="49"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
@@ -2185,12 +3139,12 @@
       <c r="L4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="49"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
@@ -2221,12 +3175,12 @@
       <c r="L5" s="10">
         <v>9</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="49"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="9" t="s">
         <v>50</v>
       </c>
@@ -2257,12 +3211,12 @@
       <c r="L6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="54"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
@@ -2293,40 +3247,40 @@
       <c r="L7" s="16">
         <v>0.01</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="49"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2405,12 +3359,12 @@
       <c r="G3" s="42"/>
     </row>
     <row r="4" spans="4:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D5" s="40" t="s">
@@ -2576,7 +3530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43CFC28-01EA-40E5-8413-A4534F1CF3F7}">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2606,17 +3560,17 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="59"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="49" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -2625,159 +3579,159 @@
       <c r="E4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
-      <c r="C5" s="62">
+      <c r="B5" s="52"/>
+      <c r="C5" s="51">
         <v>17</v>
       </c>
       <c r="D5" s="43">
         <v>1000</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="54">
         <f>(C5-$I$1)/($J$1-$I$1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="55">
         <f>(D5-$I$2)/($J$2-$I$2)</f>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
-      <c r="C6" s="62">
+      <c r="B6" s="52"/>
+      <c r="C6" s="51">
         <v>23</v>
       </c>
       <c r="D6" s="43">
         <v>7000</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="54">
         <f t="shared" ref="E6:E13" si="0">(C6-$I$1)/($J$1-$I$1)</f>
         <v>7.792207792207792E-2</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="55">
         <f t="shared" ref="F6:F13" si="1">(D6-$I$2)/($J$2-$I$2)</f>
         <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="C7" s="62">
+      <c r="B7" s="52"/>
+      <c r="C7" s="51">
         <v>25</v>
       </c>
       <c r="D7" s="43">
         <v>9000</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="54">
         <f t="shared" si="0"/>
         <v>0.1038961038961039</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="55">
         <f t="shared" si="1"/>
         <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="63"/>
-      <c r="C8" s="62">
+      <c r="B8" s="52"/>
+      <c r="C8" s="51">
         <v>28</v>
       </c>
       <c r="D8" s="43">
         <v>12000</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="54">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="55">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="63"/>
-      <c r="C9" s="62">
+      <c r="B9" s="52"/>
+      <c r="C9" s="51">
         <v>40</v>
       </c>
       <c r="D9" s="43">
         <v>40000</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="54">
         <f t="shared" si="0"/>
         <v>0.29870129870129869</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="63"/>
-      <c r="C10" s="62">
+      <c r="B10" s="52"/>
+      <c r="C10" s="51">
         <v>39</v>
       </c>
       <c r="D10" s="43">
         <v>17000</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="54">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="55">
         <f t="shared" si="1"/>
         <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="63"/>
-      <c r="C11" s="62">
+      <c r="B11" s="52"/>
+      <c r="C11" s="51">
         <v>61</v>
       </c>
       <c r="D11" s="43">
         <v>5000</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="54">
         <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="55">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="63"/>
-      <c r="C12" s="62">
+      <c r="B12" s="52"/>
+      <c r="C12" s="51">
         <v>68</v>
       </c>
       <c r="D12" s="43">
         <v>2700</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="54">
         <f t="shared" si="0"/>
         <v>0.66233766233766234</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="55">
         <f t="shared" si="1"/>
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="64">
+      <c r="B13" s="52"/>
+      <c r="C13" s="53">
         <v>94</v>
       </c>
       <c r="D13" s="47">
         <v>0</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2790,4 +3744,97 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D30581-6B17-44AC-9BD6-3B4FB45286E5}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" activeCellId="1" sqref="E6:E13 F6:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>70000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>